--- a/docs/Database20201118.xlsx
+++ b/docs/Database20201118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junhong\Desktop\BMW Interface\接口平台\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B62345-E548-48C7-BD08-A4F37F356BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4205562E-65D2-4DEE-BBF7-691A6475C12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DMS Interface" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="483">
   <si>
     <t>Table Name</t>
   </si>
@@ -1512,6 +1512,9 @@
   </si>
   <si>
     <t>内容超长处理方式(1-报错,2-截断)</t>
+  </si>
+  <si>
+    <t>启用任务(1-是,0-否)</t>
   </si>
 </sst>
 </file>
@@ -1997,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H109"/>
+  <dimension ref="B2:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,96 +3679,111 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3" t="s">
-        <v>80</v>
+      <c r="B104" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" s="16"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>433</v>
+        <v>82</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
-        <v>130</v>
+        <v>431</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>109</v>
+      <c r="B108" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="6" t="s">
-        <v>110</v>
+      <c r="H108" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" s="3">
-        <v>50</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D109" s="3"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="3">
+        <v>50</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4279,8 +4297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17950AE2-4729-4B9A-9447-42B416BF5488}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
